--- a/Reports/heart/heart_tabfairgan_100_1.xlsx
+++ b/Reports/heart/heart_tabfairgan_100_1.xlsx
@@ -442,57 +442,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.008200000000000001</v>
+        <v>0.008399999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0505</v>
+        <v>0.008399999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9092</v>
+        <v>1.0156</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.4003</v>
+        <v>1.0029</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2639</v>
+        <v>-0.0139</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.5429</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0255</v>
+        <v>0.0805</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.0478</v>
+        <v>1.155</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.216</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0016</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.6467000000000001</v>
+        <v>0.6185</v>
       </c>
     </row>
     <row r="13">
